--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.094072</v>
+        <v>4.204118999999999</v>
       </c>
       <c r="H2">
-        <v>12.282216</v>
+        <v>12.612357</v>
       </c>
       <c r="I2">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="J2">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>405.095012220128</v>
+        <v>706.7537191787859</v>
       </c>
       <c r="R2">
-        <v>3645.855109981152</v>
+        <v>6360.783472609073</v>
       </c>
       <c r="S2">
-        <v>0.003086890531961604</v>
+        <v>0.005918093368856362</v>
       </c>
       <c r="T2">
-        <v>0.003086890531961605</v>
+        <v>0.005918093368856364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.094072</v>
+        <v>4.204118999999999</v>
       </c>
       <c r="H3">
-        <v>12.282216</v>
+        <v>12.612357</v>
       </c>
       <c r="I3">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="J3">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>667.3592652683013</v>
+        <v>685.297612484711</v>
       </c>
       <c r="R3">
-        <v>6006.233387414713</v>
+        <v>6167.678512362399</v>
       </c>
       <c r="S3">
-        <v>0.005085387218379612</v>
+        <v>0.005738427893738349</v>
       </c>
       <c r="T3">
-        <v>0.005085387218379614</v>
+        <v>0.005738427893738351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.094072</v>
+        <v>4.204118999999999</v>
       </c>
       <c r="H4">
-        <v>12.282216</v>
+        <v>12.612357</v>
       </c>
       <c r="I4">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="J4">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>590.6632171946933</v>
+        <v>697.8565533500699</v>
       </c>
       <c r="R4">
-        <v>5315.96895475224</v>
+        <v>6280.70898015063</v>
       </c>
       <c r="S4">
-        <v>0.004500950734356349</v>
+        <v>0.005843591803935387</v>
       </c>
       <c r="T4">
-        <v>0.00450095073435635</v>
+        <v>0.005843591803935387</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>4.094072</v>
+        <v>4.204118999999999</v>
       </c>
       <c r="H5">
-        <v>12.282216</v>
+        <v>12.612357</v>
       </c>
       <c r="I5">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="J5">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>267.7363692130134</v>
+        <v>278.425072118719</v>
       </c>
       <c r="R5">
-        <v>2409.62732291712</v>
+        <v>2505.825649068471</v>
       </c>
       <c r="S5">
-        <v>0.00204019511041603</v>
+        <v>0.00233142823067666</v>
       </c>
       <c r="T5">
-        <v>0.002040195110416031</v>
+        <v>0.00233142823067666</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>543.064652</v>
       </c>
       <c r="I6">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807857</v>
       </c>
       <c r="J6">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807858</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>17911.48941186669</v>
+        <v>30431.50162618559</v>
       </c>
       <c r="R6">
-        <v>161203.4047068002</v>
+        <v>273883.5146356703</v>
       </c>
       <c r="S6">
-        <v>0.1364884913684813</v>
+        <v>0.2548221015200797</v>
       </c>
       <c r="T6">
-        <v>0.1364884913684814</v>
+        <v>0.2548221015200798</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>543.064652</v>
       </c>
       <c r="I7">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807857</v>
       </c>
       <c r="J7">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807858</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>29507.64154871611</v>
@@ -883,10 +883,10 @@
         <v>265568.773938445</v>
       </c>
       <c r="S7">
-        <v>0.224853075376184</v>
+        <v>0.2470860400748338</v>
       </c>
       <c r="T7">
-        <v>0.224853075376184</v>
+        <v>0.2470860400748338</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>543.064652</v>
       </c>
       <c r="I8">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807857</v>
       </c>
       <c r="J8">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807858</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>26116.4853716167</v>
+        <v>30048.40620123385</v>
       </c>
       <c r="R8">
-        <v>235048.3683445503</v>
+        <v>270435.6558111047</v>
       </c>
       <c r="S8">
-        <v>0.1990119082926383</v>
+        <v>0.2516142025978351</v>
       </c>
       <c r="T8">
-        <v>0.1990119082926384</v>
+        <v>0.2516142025978351</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>543.064652</v>
       </c>
       <c r="I9">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807857</v>
       </c>
       <c r="J9">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807858</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>11838.10463636274</v>
+        <v>11988.46614460938</v>
       </c>
       <c r="R9">
-        <v>106542.9417272647</v>
+        <v>107896.1953014844</v>
       </c>
       <c r="S9">
-        <v>0.09020830179587978</v>
+        <v>0.1003869665880371</v>
       </c>
       <c r="T9">
-        <v>0.0902083017958798</v>
+        <v>0.1003869665880371</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.082493</v>
+        <v>26.057747</v>
       </c>
       <c r="H10">
-        <v>90.247479</v>
+        <v>78.173241</v>
       </c>
       <c r="I10">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="J10">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>2976.564132102932</v>
+        <v>4380.563348865685</v>
       </c>
       <c r="R10">
-        <v>26789.07718892639</v>
+        <v>39425.07013979116</v>
       </c>
       <c r="S10">
-        <v>0.02268190760189397</v>
+        <v>0.03668121186104313</v>
       </c>
       <c r="T10">
-        <v>0.02268190760189397</v>
+        <v>0.03668121186104314</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.082493</v>
+        <v>26.057747</v>
       </c>
       <c r="H11">
-        <v>90.247479</v>
+        <v>78.173241</v>
       </c>
       <c r="I11">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="J11">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>4903.633943398851</v>
+        <v>4247.575248424377</v>
       </c>
       <c r="R11">
-        <v>44132.70549058965</v>
+        <v>38228.17723581939</v>
       </c>
       <c r="S11">
-        <v>0.03736649609464469</v>
+        <v>0.03556761885968899</v>
       </c>
       <c r="T11">
-        <v>0.0373664960946447</v>
+        <v>0.03556761885968899</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.082493</v>
+        <v>26.057747</v>
       </c>
       <c r="H12">
-        <v>90.247479</v>
+        <v>78.173241</v>
       </c>
       <c r="I12">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="J12">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>4340.085395815423</v>
+        <v>4325.41740837691</v>
       </c>
       <c r="R12">
-        <v>39060.76856233881</v>
+        <v>38928.75667539219</v>
       </c>
       <c r="S12">
-        <v>0.03307216359644377</v>
+        <v>0.03621944021998948</v>
       </c>
       <c r="T12">
-        <v>0.03307216359644378</v>
+        <v>0.03621944021998948</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.082493</v>
+        <v>26.057747</v>
       </c>
       <c r="H13">
-        <v>90.247479</v>
+        <v>78.173241</v>
       </c>
       <c r="I13">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="J13">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>1967.277921027254</v>
+        <v>1725.719487894214</v>
       </c>
       <c r="R13">
-        <v>17705.50128924528</v>
+        <v>15531.47539104792</v>
       </c>
       <c r="S13">
-        <v>0.01499098089328289</v>
+        <v>0.01445053457897601</v>
       </c>
       <c r="T13">
-        <v>0.01499098089328289</v>
+        <v>0.01445053457897601</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>63.05609033333332</v>
+        <v>0.7081243333333332</v>
       </c>
       <c r="H14">
-        <v>189.168271</v>
+        <v>2.124373</v>
       </c>
       <c r="I14">
-        <v>0.2266132513854375</v>
+        <v>0.003340342402309973</v>
       </c>
       <c r="J14">
-        <v>0.2266132513854376</v>
+        <v>0.003340342402309974</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>6239.1935667314</v>
+        <v>119.0426594071984</v>
       </c>
       <c r="R14">
-        <v>56152.7421005826</v>
+        <v>1071.383934664786</v>
       </c>
       <c r="S14">
-        <v>0.04754367979666265</v>
+        <v>0.0009968190532727147</v>
       </c>
       <c r="T14">
-        <v>0.04754367979666266</v>
+        <v>0.0009968190532727151</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>63.05609033333332</v>
+        <v>0.7081243333333332</v>
       </c>
       <c r="H15">
-        <v>189.168271</v>
+        <v>2.124373</v>
       </c>
       <c r="I15">
-        <v>0.2266132513854375</v>
+        <v>0.003340342402309973</v>
       </c>
       <c r="J15">
-        <v>0.2266132513854376</v>
+        <v>0.003340342402309974</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>10278.53592109395</v>
+        <v>115.4286819606345</v>
       </c>
       <c r="R15">
-        <v>92506.82328984559</v>
+        <v>1038.858137645711</v>
       </c>
       <c r="S15">
-        <v>0.07832413201871476</v>
+        <v>0.0009665569472783412</v>
       </c>
       <c r="T15">
-        <v>0.07832413201871477</v>
+        <v>0.0009665569472783414</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>63.05609033333332</v>
+        <v>0.7081243333333332</v>
       </c>
       <c r="H16">
-        <v>189.168271</v>
+        <v>2.124373</v>
       </c>
       <c r="I16">
-        <v>0.2266132513854375</v>
+        <v>0.003340342402309973</v>
       </c>
       <c r="J16">
-        <v>0.2266132513854376</v>
+        <v>0.003340342402309974</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>9097.278499255965</v>
+        <v>117.5440577688966</v>
       </c>
       <c r="R16">
-        <v>81875.50649330368</v>
+        <v>1057.89651992007</v>
       </c>
       <c r="S16">
-        <v>0.06932275643697935</v>
+        <v>0.0009842703192830355</v>
       </c>
       <c r="T16">
-        <v>0.06932275643697937</v>
+        <v>0.0009842703192830358</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>63.05609033333332</v>
+        <v>0.7081243333333332</v>
       </c>
       <c r="H17">
-        <v>189.168271</v>
+        <v>2.124373</v>
       </c>
       <c r="I17">
-        <v>0.2266132513854375</v>
+        <v>0.003340342402309973</v>
       </c>
       <c r="J17">
-        <v>0.2266132513854376</v>
+        <v>0.003340342402309974</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>4123.622809421636</v>
+        <v>46.89676209863544</v>
       </c>
       <c r="R17">
-        <v>37112.60528479472</v>
+        <v>422.070858887719</v>
       </c>
       <c r="S17">
-        <v>0.03142268313308075</v>
+        <v>0.0003926960824758819</v>
       </c>
       <c r="T17">
-        <v>0.03142268313308076</v>
+        <v>0.000392696082475882</v>
       </c>
     </row>
   </sheetData>
